--- a/Themis_evaluation_data.xlsx
+++ b/Themis_evaluation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tingsu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD7AB5-DFC5-7547-8E8D-97340401FD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA55E8E-BF11-5A48-91DE-A5335F1ED800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -537,6 +537,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -558,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,41 +579,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,6 +600,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,13 +954,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="24" style="24" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -958,7 +973,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -990,7 +1005,7 @@
     </row>
     <row r="2" spans="1:16" ht="15">
       <c r="A2" s="5"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1010,25 +1025,25 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="5"/>
@@ -1042,25 +1057,25 @@
     </row>
     <row r="4" spans="1:16" ht="32">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="5"/>
@@ -1074,25 +1089,25 @@
     </row>
     <row r="5" spans="1:16" ht="32">
       <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="5"/>
@@ -1106,25 +1121,25 @@
     </row>
     <row r="6" spans="1:16" ht="32">
       <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="5"/>
@@ -1137,26 +1152,26 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="31">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
@@ -1169,26 +1184,26 @@
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" ht="31">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="5"/>
@@ -1201,26 +1216,26 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" ht="31">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="5"/>
@@ -1234,13 +1249,13 @@
     </row>
     <row r="10" spans="1:16" ht="15">
       <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1254,25 +1269,25 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="5"/>
@@ -1286,25 +1301,25 @@
     </row>
     <row r="12" spans="1:16" ht="32">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="5"/>
@@ -1318,13 +1333,13 @@
     </row>
     <row r="13" spans="1:16" ht="15">
       <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1336,13 +1351,13 @@
     </row>
     <row r="14" spans="1:16" ht="15">
       <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1356,25 +1371,25 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="5"/>
@@ -1388,13 +1403,13 @@
     </row>
     <row r="16" spans="1:16" ht="15">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1406,13 +1421,13 @@
     </row>
     <row r="17" spans="1:16" ht="15">
       <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1426,25 +1441,25 @@
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="5"/>
@@ -1458,25 +1473,25 @@
     </row>
     <row r="19" spans="1:16" ht="31">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="5"/>
@@ -1490,25 +1505,25 @@
     </row>
     <row r="20" spans="1:16" ht="31">
       <c r="A20" s="5"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="5"/>
@@ -1522,25 +1537,25 @@
     </row>
     <row r="21" spans="1:16" ht="31">
       <c r="A21" s="5"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="5"/>
@@ -1554,25 +1569,25 @@
     </row>
     <row r="22" spans="1:16" ht="31">
       <c r="A22" s="5"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="7" t="s">
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="5"/>
@@ -1586,13 +1601,13 @@
     </row>
     <row r="23" spans="1:16" ht="15">
       <c r="A23" s="5"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1604,13 +1619,13 @@
     </row>
     <row r="24" spans="1:16" ht="15">
       <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1624,25 +1639,25 @@
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I25" s="5"/>
@@ -1656,13 +1671,13 @@
     </row>
     <row r="26" spans="1:16" ht="15">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1676,25 +1691,25 @@
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="5"/>
@@ -1708,13 +1723,13 @@
     </row>
     <row r="28" spans="1:16" ht="15">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1726,13 +1741,13 @@
     </row>
     <row r="29" spans="1:16" ht="15">
       <c r="A29" s="5"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1746,25 +1761,25 @@
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="G30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="5"/>
@@ -1778,13 +1793,13 @@
     </row>
     <row r="31" spans="1:16" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1795,28 +1810,28 @@
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" ht="31">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="5"/>
@@ -1830,13 +1845,13 @@
     </row>
     <row r="33" spans="1:16" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1850,25 +1865,25 @@
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="E34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="5"/>
@@ -1882,25 +1897,25 @@
     </row>
     <row r="35" spans="1:16" ht="48">
       <c r="A35" s="1"/>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I35" s="5"/>
@@ -1914,25 +1929,25 @@
     </row>
     <row r="36" spans="1:16" ht="48">
       <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="7" t="s">
+      <c r="C36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="5"/>
@@ -1946,25 +1961,25 @@
     </row>
     <row r="37" spans="1:16" ht="48">
       <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="C37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I37" s="5"/>
@@ -1978,12 +1993,12 @@
     </row>
     <row r="38" spans="1:16" ht="15">
       <c r="A38" s="5"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="1"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -1995,28 +2010,28 @@
       <c r="P38" s="5"/>
     </row>
     <row r="39" spans="1:16" ht="12" customHeight="1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="D39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="7" t="s">
+      <c r="G39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="5"/>
@@ -2030,12 +2045,12 @@
     </row>
     <row r="40" spans="1:16" ht="15">
       <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="1"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -2050,25 +2065,25 @@
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="7" t="s">
+      <c r="G41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I41" s="5"/>
@@ -2082,25 +2097,25 @@
     </row>
     <row r="42" spans="1:16" ht="31">
       <c r="A42" s="1"/>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="C42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I42" s="5"/>
@@ -2114,25 +2129,25 @@
     </row>
     <row r="43" spans="1:16" ht="31">
       <c r="A43" s="5"/>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="5"/>
@@ -2146,7 +2161,7 @@
     </row>
     <row r="44" spans="1:16" ht="15">
       <c r="A44" s="5"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2164,7 +2179,7 @@
     </row>
     <row r="45" spans="1:16" ht="15">
       <c r="A45" s="5"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2184,25 +2199,25 @@
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="F46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="5"/>
@@ -2216,7 +2231,7 @@
     </row>
     <row r="47" spans="1:16" ht="15">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2233,28 +2248,28 @@
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" ht="32">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I48" s="5"/>
@@ -2268,13 +2283,13 @@
     </row>
     <row r="49" spans="1:16" ht="15">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2288,25 +2303,25 @@
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="C50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I50" s="5"/>
@@ -2320,25 +2335,25 @@
     </row>
     <row r="51" spans="1:16" ht="46">
       <c r="A51" s="5"/>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="C51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I51" s="5"/>
@@ -2352,25 +2367,25 @@
     </row>
     <row r="52" spans="1:16" ht="46">
       <c r="A52" s="5"/>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="C52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="5"/>
@@ -2384,25 +2399,25 @@
     </row>
     <row r="53" spans="1:16" ht="46">
       <c r="A53" s="5"/>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="C53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="F53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I53" s="5"/>
@@ -2416,25 +2431,25 @@
     </row>
     <row r="54" spans="1:16" ht="46">
       <c r="A54" s="5"/>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="F54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="5"/>
@@ -2448,25 +2463,25 @@
     </row>
     <row r="55" spans="1:16" ht="46">
       <c r="A55" s="5"/>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="C55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="5"/>
@@ -2480,25 +2495,25 @@
     </row>
     <row r="56" spans="1:16" ht="46">
       <c r="A56" s="5"/>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="C56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="G56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I56" s="5"/>
@@ -2512,25 +2527,25 @@
     </row>
     <row r="57" spans="1:16" ht="31" customHeight="1">
       <c r="A57" s="5"/>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="E57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="5"/>
@@ -2544,25 +2559,25 @@
     </row>
     <row r="58" spans="1:16" ht="46">
       <c r="A58" s="5"/>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="7" t="s">
+      <c r="G58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I58" s="5"/>
@@ -2576,13 +2591,13 @@
     </row>
     <row r="59" spans="1:16" ht="15">
       <c r="A59" s="5"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="11"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -2596,25 +2611,25 @@
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I60" s="5"/>
@@ -2628,25 +2643,25 @@
     </row>
     <row r="61" spans="1:16" ht="31">
       <c r="A61" s="1"/>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="5"/>
@@ -2660,25 +2675,25 @@
     </row>
     <row r="62" spans="1:16" ht="12" customHeight="1">
       <c r="A62" s="5"/>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="7" t="s">
+      <c r="C62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I62" s="5"/>
@@ -2692,25 +2707,25 @@
     </row>
     <row r="63" spans="1:16" ht="31">
       <c r="A63" s="5"/>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I63" s="5"/>
@@ -2724,13 +2739,13 @@
     </row>
     <row r="64" spans="1:16" ht="15">
       <c r="A64" s="5"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -2744,25 +2759,25 @@
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="7" t="s">
+      <c r="C65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I65" s="5"/>
@@ -2776,25 +2791,25 @@
     </row>
     <row r="66" spans="1:16" ht="26" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="5"/>
@@ -2808,25 +2823,25 @@
     </row>
     <row r="67" spans="1:16" ht="48">
       <c r="A67" s="5"/>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="C67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I67" s="5"/>
@@ -2840,25 +2855,25 @@
     </row>
     <row r="68" spans="1:16" ht="64">
       <c r="A68" s="5"/>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="7" t="s">
+      <c r="C68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="5"/>
@@ -2872,25 +2887,25 @@
     </row>
     <row r="69" spans="1:16" ht="64">
       <c r="A69" s="5"/>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="C69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I69" s="5"/>
@@ -2904,13 +2919,13 @@
     </row>
     <row r="70" spans="1:16" ht="15">
       <c r="A70" s="5"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="10"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="11"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -2921,28 +2936,28 @@
       <c r="P70" s="5"/>
     </row>
     <row r="71" spans="1:16" ht="31">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="7" t="s">
+      <c r="C71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="7" t="s">
+      <c r="F71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I71" s="5"/>
@@ -2955,14 +2970,14 @@
       <c r="P71" s="5"/>
     </row>
     <row r="72" spans="1:16" ht="15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="10"/>
+      <c r="F72" s="8"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="11"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -2973,28 +2988,28 @@
       <c r="P72" s="5"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="E73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I73" s="5"/>
@@ -3007,14 +3022,14 @@
       <c r="P73" s="5"/>
     </row>
     <row r="74" spans="1:16" ht="15">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="10"/>
+      <c r="F74" s="8"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="11"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -3025,28 +3040,28 @@
       <c r="P74" s="5"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="7" t="s">
+      <c r="C75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I75" s="5"/>
@@ -3059,14 +3074,14 @@
       <c r="P75" s="5"/>
     </row>
     <row r="76" spans="1:16" ht="15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="10"/>
+      <c r="F76" s="8"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="11"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -3077,28 +3092,28 @@
       <c r="P76" s="5"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="7" t="s">
+      <c r="C77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="7" t="s">
+      <c r="E77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I77" s="5"/>
@@ -3112,25 +3127,25 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1"/>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="7" t="s">
+      <c r="C78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I78" s="5"/>
@@ -3144,7 +3159,7 @@
     </row>
     <row r="79" spans="1:16" ht="15">
       <c r="A79" s="5"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3162,7 +3177,7 @@
     </row>
     <row r="80" spans="1:16" ht="15">
       <c r="A80" s="5"/>
-      <c r="B80" s="2"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3180,7 +3195,7 @@
     </row>
     <row r="81" spans="1:16" ht="15">
       <c r="A81" s="5"/>
-      <c r="B81" s="2"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3198,7 +3213,7 @@
     </row>
     <row r="82" spans="1:16" ht="15">
       <c r="A82" s="5"/>
-      <c r="B82" s="2"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3216,7 +3231,7 @@
     </row>
     <row r="83" spans="1:16" ht="15">
       <c r="A83" s="5"/>
-      <c r="B83" s="2"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3234,7 +3249,7 @@
     </row>
     <row r="84" spans="1:16" ht="15">
       <c r="A84" s="5"/>
-      <c r="B84" s="2"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3252,7 +3267,7 @@
     </row>
     <row r="85" spans="1:16" ht="15">
       <c r="A85" s="5"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3270,7 +3285,7 @@
     </row>
     <row r="86" spans="1:16" ht="15">
       <c r="A86" s="5"/>
-      <c r="B86" s="2"/>
+      <c r="B86" s="15"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3288,7 +3303,7 @@
     </row>
     <row r="87" spans="1:16" ht="15">
       <c r="A87" s="5"/>
-      <c r="B87" s="2"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3306,7 +3321,7 @@
     </row>
     <row r="88" spans="1:16" ht="15">
       <c r="A88" s="5"/>
-      <c r="B88" s="2"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3324,7 +3339,7 @@
     </row>
     <row r="89" spans="1:16" ht="15">
       <c r="A89" s="5"/>
-      <c r="B89" s="2"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3342,7 +3357,7 @@
     </row>
     <row r="90" spans="1:16" ht="15">
       <c r="A90" s="5"/>
-      <c r="B90" s="2"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3360,7 +3375,7 @@
     </row>
     <row r="91" spans="1:16" ht="15">
       <c r="A91" s="5"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3378,7 +3393,7 @@
     </row>
     <row r="92" spans="1:16" ht="15">
       <c r="A92" s="5"/>
-      <c r="B92" s="2"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3396,7 +3411,7 @@
     </row>
     <row r="93" spans="1:16" ht="15">
       <c r="A93" s="5"/>
-      <c r="B93" s="2"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3414,7 +3429,7 @@
     </row>
     <row r="94" spans="1:16" ht="15">
       <c r="A94" s="5"/>
-      <c r="B94" s="2"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3432,7 +3447,7 @@
     </row>
     <row r="95" spans="1:16" ht="15">
       <c r="A95" s="5"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3450,7 +3465,7 @@
     </row>
     <row r="96" spans="1:16" ht="15">
       <c r="A96" s="5"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3468,7 +3483,7 @@
     </row>
     <row r="97" spans="1:16" ht="15">
       <c r="A97" s="5"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3486,7 +3501,7 @@
     </row>
     <row r="98" spans="1:16" ht="15">
       <c r="A98" s="5"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3504,7 +3519,7 @@
     </row>
     <row r="99" spans="1:16" ht="15">
       <c r="A99" s="5"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3522,7 +3537,7 @@
     </row>
     <row r="100" spans="1:16" ht="15">
       <c r="A100" s="5"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3540,7 +3555,7 @@
     </row>
     <row r="101" spans="1:16" ht="15">
       <c r="A101" s="5"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3558,7 +3573,7 @@
     </row>
     <row r="102" spans="1:16" ht="15">
       <c r="A102" s="5"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -3576,7 +3591,7 @@
     </row>
     <row r="103" spans="1:16" ht="15">
       <c r="A103" s="5"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -3594,7 +3609,7 @@
     </row>
     <row r="104" spans="1:16" ht="15">
       <c r="A104" s="5"/>
-      <c r="B104" s="2"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3612,7 +3627,7 @@
     </row>
     <row r="105" spans="1:16" ht="15">
       <c r="A105" s="5"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3630,7 +3645,7 @@
     </row>
     <row r="106" spans="1:16" ht="15">
       <c r="A106" s="5"/>
-      <c r="B106" s="2"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3648,7 +3663,7 @@
     </row>
     <row r="107" spans="1:16" ht="15">
       <c r="A107" s="5"/>
-      <c r="B107" s="2"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3666,7 +3681,7 @@
     </row>
     <row r="108" spans="1:16" ht="15">
       <c r="A108" s="5"/>
-      <c r="B108" s="2"/>
+      <c r="B108" s="15"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3684,7 +3699,7 @@
     </row>
     <row r="109" spans="1:16" ht="15">
       <c r="A109" s="5"/>
-      <c r="B109" s="2"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3702,7 +3717,7 @@
     </row>
     <row r="110" spans="1:16" ht="15">
       <c r="A110" s="5"/>
-      <c r="B110" s="2"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3720,7 +3735,7 @@
     </row>
     <row r="111" spans="1:16" ht="15">
       <c r="A111" s="5"/>
-      <c r="B111" s="2"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3738,7 +3753,7 @@
     </row>
     <row r="112" spans="1:16" ht="15">
       <c r="A112" s="5"/>
-      <c r="B112" s="2"/>
+      <c r="B112" s="15"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3756,7 +3771,7 @@
     </row>
     <row r="113" spans="1:16" ht="15">
       <c r="A113" s="5"/>
-      <c r="B113" s="2"/>
+      <c r="B113" s="15"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3774,7 +3789,7 @@
     </row>
     <row r="114" spans="1:16" ht="15">
       <c r="A114" s="5"/>
-      <c r="B114" s="2"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3792,7 +3807,7 @@
     </row>
     <row r="115" spans="1:16" ht="15">
       <c r="A115" s="5"/>
-      <c r="B115" s="2"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -3810,7 +3825,7 @@
     </row>
     <row r="116" spans="1:16" ht="15">
       <c r="A116" s="5"/>
-      <c r="B116" s="2"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -3828,7 +3843,7 @@
     </row>
     <row r="117" spans="1:16" ht="15">
       <c r="A117" s="5"/>
-      <c r="B117" s="2"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -3846,7 +3861,7 @@
     </row>
     <row r="118" spans="1:16" ht="15">
       <c r="A118" s="5"/>
-      <c r="B118" s="2"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -3864,7 +3879,7 @@
     </row>
     <row r="119" spans="1:16" ht="15">
       <c r="A119" s="5"/>
-      <c r="B119" s="2"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -3882,7 +3897,7 @@
     </row>
     <row r="120" spans="1:16" ht="15">
       <c r="A120" s="5"/>
-      <c r="B120" s="2"/>
+      <c r="B120" s="15"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -3900,7 +3915,7 @@
     </row>
     <row r="121" spans="1:16" ht="15">
       <c r="A121" s="5"/>
-      <c r="B121" s="2"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -3918,7 +3933,7 @@
     </row>
     <row r="122" spans="1:16" ht="15">
       <c r="A122" s="5"/>
-      <c r="B122" s="2"/>
+      <c r="B122" s="15"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -3936,7 +3951,7 @@
     </row>
     <row r="123" spans="1:16" ht="15">
       <c r="A123" s="5"/>
-      <c r="B123" s="2"/>
+      <c r="B123" s="15"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -3954,7 +3969,7 @@
     </row>
     <row r="124" spans="1:16" ht="15">
       <c r="A124" s="5"/>
-      <c r="B124" s="2"/>
+      <c r="B124" s="15"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3972,7 +3987,7 @@
     </row>
     <row r="125" spans="1:16" ht="15">
       <c r="A125" s="5"/>
-      <c r="B125" s="2"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3990,7 +4005,7 @@
     </row>
     <row r="126" spans="1:16" ht="15">
       <c r="A126" s="5"/>
-      <c r="B126" s="2"/>
+      <c r="B126" s="15"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4008,7 +4023,7 @@
     </row>
     <row r="127" spans="1:16" ht="15">
       <c r="A127" s="5"/>
-      <c r="B127" s="2"/>
+      <c r="B127" s="15"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4026,7 +4041,7 @@
     </row>
     <row r="128" spans="1:16" ht="15">
       <c r="A128" s="5"/>
-      <c r="B128" s="2"/>
+      <c r="B128" s="15"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4044,7 +4059,7 @@
     </row>
     <row r="129" spans="1:16" ht="15">
       <c r="A129" s="5"/>
-      <c r="B129" s="2"/>
+      <c r="B129" s="15"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4062,7 +4077,7 @@
     </row>
     <row r="130" spans="1:16" ht="15">
       <c r="A130" s="5"/>
-      <c r="B130" s="2"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -4080,7 +4095,7 @@
     </row>
     <row r="131" spans="1:16" ht="15">
       <c r="A131" s="5"/>
-      <c r="B131" s="2"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4098,7 +4113,7 @@
     </row>
     <row r="132" spans="1:16" ht="15">
       <c r="A132" s="5"/>
-      <c r="B132" s="2"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4116,7 +4131,7 @@
     </row>
     <row r="133" spans="1:16" ht="15">
       <c r="A133" s="5"/>
-      <c r="B133" s="2"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4134,7 +4149,7 @@
     </row>
     <row r="134" spans="1:16" ht="15">
       <c r="A134" s="5"/>
-      <c r="B134" s="2"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4152,7 +4167,7 @@
     </row>
     <row r="135" spans="1:16" ht="15">
       <c r="A135" s="5"/>
-      <c r="B135" s="2"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4170,7 +4185,7 @@
     </row>
     <row r="136" spans="1:16" ht="15">
       <c r="A136" s="5"/>
-      <c r="B136" s="2"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4188,7 +4203,7 @@
     </row>
     <row r="137" spans="1:16" ht="15">
       <c r="A137" s="5"/>
-      <c r="B137" s="2"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4206,7 +4221,7 @@
     </row>
     <row r="138" spans="1:16" ht="15">
       <c r="A138" s="5"/>
-      <c r="B138" s="2"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4224,7 +4239,7 @@
     </row>
     <row r="139" spans="1:16" ht="15">
       <c r="A139" s="5"/>
-      <c r="B139" s="2"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4242,7 +4257,7 @@
     </row>
     <row r="140" spans="1:16" ht="15">
       <c r="A140" s="5"/>
-      <c r="B140" s="2"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4260,7 +4275,7 @@
     </row>
     <row r="141" spans="1:16" ht="15">
       <c r="A141" s="5"/>
-      <c r="B141" s="2"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4278,7 +4293,7 @@
     </row>
     <row r="142" spans="1:16" ht="15">
       <c r="A142" s="5"/>
-      <c r="B142" s="2"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4296,7 +4311,7 @@
     </row>
     <row r="143" spans="1:16" ht="15">
       <c r="A143" s="5"/>
-      <c r="B143" s="2"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4314,7 +4329,7 @@
     </row>
     <row r="144" spans="1:16" ht="15">
       <c r="A144" s="5"/>
-      <c r="B144" s="2"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4332,7 +4347,7 @@
     </row>
     <row r="145" spans="1:16" ht="15">
       <c r="A145" s="5"/>
-      <c r="B145" s="2"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4350,7 +4365,7 @@
     </row>
     <row r="146" spans="1:16" ht="15">
       <c r="A146" s="5"/>
-      <c r="B146" s="2"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4368,7 +4383,7 @@
     </row>
     <row r="147" spans="1:16" ht="15">
       <c r="A147" s="5"/>
-      <c r="B147" s="2"/>
+      <c r="B147" s="15"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4386,7 +4401,7 @@
     </row>
     <row r="148" spans="1:16" ht="15">
       <c r="A148" s="5"/>
-      <c r="B148" s="2"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4404,7 +4419,7 @@
     </row>
     <row r="149" spans="1:16" ht="15">
       <c r="A149" s="5"/>
-      <c r="B149" s="2"/>
+      <c r="B149" s="15"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4422,7 +4437,7 @@
     </row>
     <row r="150" spans="1:16" ht="15">
       <c r="A150" s="5"/>
-      <c r="B150" s="2"/>
+      <c r="B150" s="15"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4440,7 +4455,7 @@
     </row>
     <row r="151" spans="1:16" ht="15">
       <c r="A151" s="5"/>
-      <c r="B151" s="2"/>
+      <c r="B151" s="15"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4458,7 +4473,7 @@
     </row>
     <row r="152" spans="1:16" ht="15">
       <c r="A152" s="5"/>
-      <c r="B152" s="2"/>
+      <c r="B152" s="15"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4476,7 +4491,7 @@
     </row>
     <row r="153" spans="1:16" ht="15">
       <c r="A153" s="5"/>
-      <c r="B153" s="2"/>
+      <c r="B153" s="15"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4494,7 +4509,7 @@
     </row>
     <row r="154" spans="1:16" ht="15">
       <c r="A154" s="5"/>
-      <c r="B154" s="2"/>
+      <c r="B154" s="15"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4512,7 +4527,7 @@
     </row>
     <row r="155" spans="1:16" ht="15">
       <c r="A155" s="5"/>
-      <c r="B155" s="2"/>
+      <c r="B155" s="15"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -4530,7 +4545,7 @@
     </row>
     <row r="156" spans="1:16" ht="15">
       <c r="A156" s="5"/>
-      <c r="B156" s="2"/>
+      <c r="B156" s="15"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4548,7 +4563,7 @@
     </row>
     <row r="157" spans="1:16" ht="15">
       <c r="A157" s="5"/>
-      <c r="B157" s="2"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4566,7 +4581,7 @@
     </row>
     <row r="158" spans="1:16" ht="15">
       <c r="A158" s="5"/>
-      <c r="B158" s="2"/>
+      <c r="B158" s="15"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4584,7 +4599,7 @@
     </row>
     <row r="159" spans="1:16" ht="15">
       <c r="A159" s="5"/>
-      <c r="B159" s="2"/>
+      <c r="B159" s="15"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4602,7 +4617,7 @@
     </row>
     <row r="160" spans="1:16" ht="15">
       <c r="A160" s="5"/>
-      <c r="B160" s="2"/>
+      <c r="B160" s="15"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4620,7 +4635,7 @@
     </row>
     <row r="161" spans="1:16" ht="15">
       <c r="A161" s="5"/>
-      <c r="B161" s="2"/>
+      <c r="B161" s="15"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4638,7 +4653,7 @@
     </row>
     <row r="162" spans="1:16" ht="15">
       <c r="A162" s="5"/>
-      <c r="B162" s="2"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4656,7 +4671,7 @@
     </row>
     <row r="163" spans="1:16" ht="15">
       <c r="A163" s="5"/>
-      <c r="B163" s="2"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4674,7 +4689,7 @@
     </row>
     <row r="164" spans="1:16" ht="15">
       <c r="A164" s="5"/>
-      <c r="B164" s="2"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -4692,7 +4707,7 @@
     </row>
     <row r="165" spans="1:16" ht="15">
       <c r="A165" s="5"/>
-      <c r="B165" s="2"/>
+      <c r="B165" s="15"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -4710,7 +4725,7 @@
     </row>
     <row r="166" spans="1:16" ht="15">
       <c r="A166" s="5"/>
-      <c r="B166" s="2"/>
+      <c r="B166" s="15"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -4728,7 +4743,7 @@
     </row>
     <row r="167" spans="1:16" ht="15">
       <c r="A167" s="5"/>
-      <c r="B167" s="2"/>
+      <c r="B167" s="15"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -4746,7 +4761,7 @@
     </row>
     <row r="168" spans="1:16" ht="15">
       <c r="A168" s="5"/>
-      <c r="B168" s="2"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -4764,7 +4779,7 @@
     </row>
     <row r="169" spans="1:16" ht="15">
       <c r="A169" s="5"/>
-      <c r="B169" s="2"/>
+      <c r="B169" s="15"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -4782,7 +4797,7 @@
     </row>
     <row r="170" spans="1:16" ht="15">
       <c r="A170" s="5"/>
-      <c r="B170" s="2"/>
+      <c r="B170" s="15"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -4800,7 +4815,7 @@
     </row>
     <row r="171" spans="1:16" ht="15">
       <c r="A171" s="5"/>
-      <c r="B171" s="2"/>
+      <c r="B171" s="15"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -4818,7 +4833,7 @@
     </row>
     <row r="172" spans="1:16" ht="15">
       <c r="A172" s="5"/>
-      <c r="B172" s="2"/>
+      <c r="B172" s="15"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -4836,7 +4851,7 @@
     </row>
     <row r="173" spans="1:16" ht="15">
       <c r="A173" s="5"/>
-      <c r="B173" s="2"/>
+      <c r="B173" s="15"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -4854,7 +4869,7 @@
     </row>
     <row r="174" spans="1:16" ht="15">
       <c r="A174" s="5"/>
-      <c r="B174" s="2"/>
+      <c r="B174" s="15"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -4872,7 +4887,7 @@
     </row>
     <row r="175" spans="1:16" ht="15">
       <c r="A175" s="5"/>
-      <c r="B175" s="2"/>
+      <c r="B175" s="15"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -4890,7 +4905,7 @@
     </row>
     <row r="176" spans="1:16" ht="15">
       <c r="A176" s="5"/>
-      <c r="B176" s="2"/>
+      <c r="B176" s="15"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -4908,7 +4923,7 @@
     </row>
     <row r="177" spans="1:16" ht="15">
       <c r="A177" s="5"/>
-      <c r="B177" s="2"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4926,7 +4941,7 @@
     </row>
     <row r="178" spans="1:16" ht="15">
       <c r="A178" s="5"/>
-      <c r="B178" s="2"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4944,7 +4959,7 @@
     </row>
     <row r="179" spans="1:16" ht="15">
       <c r="A179" s="5"/>
-      <c r="B179" s="2"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -4962,7 +4977,7 @@
     </row>
     <row r="180" spans="1:16" ht="15">
       <c r="A180" s="5"/>
-      <c r="B180" s="2"/>
+      <c r="B180" s="15"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -4980,7 +4995,7 @@
     </row>
     <row r="181" spans="1:16" ht="15">
       <c r="A181" s="5"/>
-      <c r="B181" s="2"/>
+      <c r="B181" s="15"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -4998,7 +5013,7 @@
     </row>
     <row r="182" spans="1:16" ht="15">
       <c r="A182" s="5"/>
-      <c r="B182" s="2"/>
+      <c r="B182" s="15"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -5016,7 +5031,7 @@
     </row>
     <row r="183" spans="1:16" ht="15">
       <c r="A183" s="5"/>
-      <c r="B183" s="2"/>
+      <c r="B183" s="15"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -5034,7 +5049,7 @@
     </row>
     <row r="184" spans="1:16" ht="15">
       <c r="A184" s="5"/>
-      <c r="B184" s="2"/>
+      <c r="B184" s="15"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -5052,7 +5067,7 @@
     </row>
     <row r="185" spans="1:16" ht="15">
       <c r="A185" s="5"/>
-      <c r="B185" s="2"/>
+      <c r="B185" s="15"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -5070,7 +5085,7 @@
     </row>
     <row r="186" spans="1:16" ht="15">
       <c r="A186" s="5"/>
-      <c r="B186" s="2"/>
+      <c r="B186" s="15"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -5088,7 +5103,7 @@
     </row>
     <row r="187" spans="1:16" ht="15">
       <c r="A187" s="5"/>
-      <c r="B187" s="2"/>
+      <c r="B187" s="15"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -5106,7 +5121,7 @@
     </row>
     <row r="188" spans="1:16" ht="15">
       <c r="A188" s="5"/>
-      <c r="B188" s="2"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -5124,7 +5139,7 @@
     </row>
     <row r="189" spans="1:16" ht="15">
       <c r="A189" s="5"/>
-      <c r="B189" s="2"/>
+      <c r="B189" s="15"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -5142,7 +5157,7 @@
     </row>
     <row r="190" spans="1:16" ht="15">
       <c r="A190" s="5"/>
-      <c r="B190" s="2"/>
+      <c r="B190" s="15"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -5160,7 +5175,7 @@
     </row>
     <row r="191" spans="1:16" ht="15">
       <c r="A191" s="5"/>
-      <c r="B191" s="2"/>
+      <c r="B191" s="15"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -5178,7 +5193,7 @@
     </row>
     <row r="192" spans="1:16" ht="15">
       <c r="A192" s="5"/>
-      <c r="B192" s="2"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -5196,7 +5211,7 @@
     </row>
     <row r="193" spans="1:16" ht="15">
       <c r="A193" s="5"/>
-      <c r="B193" s="2"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -5214,7 +5229,7 @@
     </row>
     <row r="194" spans="1:16" ht="15">
       <c r="A194" s="5"/>
-      <c r="B194" s="2"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -5232,7 +5247,7 @@
     </row>
     <row r="195" spans="1:16" ht="15">
       <c r="A195" s="5"/>
-      <c r="B195" s="2"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -5250,7 +5265,7 @@
     </row>
     <row r="196" spans="1:16" ht="15">
       <c r="A196" s="5"/>
-      <c r="B196" s="2"/>
+      <c r="B196" s="15"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -5268,7 +5283,7 @@
     </row>
     <row r="197" spans="1:16" ht="15">
       <c r="A197" s="5"/>
-      <c r="B197" s="2"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -5286,7 +5301,7 @@
     </row>
     <row r="198" spans="1:16" ht="15">
       <c r="A198" s="5"/>
-      <c r="B198" s="2"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -5397,7 +5412,7 @@
       <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5"/>
@@ -5440,7 +5455,7 @@
       <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="11">
         <v>2</v>
       </c>
       <c r="H3" s="5"/>
@@ -5483,7 +5498,7 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="11">
         <v>3</v>
       </c>
       <c r="H4" s="5"/>
@@ -5526,7 +5541,7 @@
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="11">
         <v>2</v>
       </c>
       <c r="H5" s="5"/>
@@ -5569,7 +5584,7 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="11">
         <v>1</v>
       </c>
       <c r="H6" s="5"/>
@@ -5612,7 +5627,7 @@
       <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="11">
         <v>2</v>
       </c>
       <c r="H7" s="5"/>
@@ -5661,7 +5676,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5710,7 +5725,7 @@
         <f>SUM(F3:F7)</f>
         <v>18</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="11">
         <v>10</v>
       </c>
       <c r="H10" s="5"/>
@@ -5800,7 +5815,7 @@
       <c r="E13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G13" s="5"/>
@@ -5830,7 +5845,7 @@
       <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -5839,7 +5854,7 @@
       <c r="E14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="10" t="s">
         <v>105</v>
       </c>
       <c r="G14" s="5"/>
@@ -5875,7 +5890,7 @@
       <c r="D15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="10" t="s">
         <v>109</v>
       </c>
       <c r="F15" s="5"/>
@@ -5912,7 +5927,7 @@
       <c r="D16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="5"/>
@@ -5946,7 +5961,7 @@
       <c r="C17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E17" s="5"/>
@@ -5981,7 +5996,7 @@
       <c r="C18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E18" s="5"/>
@@ -6013,7 +6028,7 @@
       <c r="B19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D19" s="5"/>
@@ -6046,7 +6061,7 @@
       <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D20" s="5"/>
@@ -6076,7 +6091,7 @@
     </row>
     <row r="21" spans="1:27" ht="15">
       <c r="A21" s="5"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="5"/>
@@ -6107,7 +6122,7 @@
     </row>
     <row r="22" spans="1:27" ht="15">
       <c r="A22" s="5"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="5"/>
